--- a/资料/维一网·优质索赔标的（1号）.xlsx
+++ b/资料/维一网·优质索赔标的（1号）.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\lau\WeChatProjects\miniprogram-1\资料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1B29C4F-0970-45AB-9031-9F8286DCD4FD}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AF58AAD-19A8-4882-A22C-B23A0F39BE6D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7830" yWindow="4690" windowWidth="23890" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="18070" yWindow="4520" windowWidth="17910" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>证券名称</t>
   </si>
@@ -34,238 +34,187 @@
     <t>基准价</t>
   </si>
   <si>
-    <t>1，佳电股份</t>
-  </si>
-  <si>
-    <t>000922</t>
-  </si>
-  <si>
     <t>2014.4.22</t>
   </si>
   <si>
     <t>2017.4.7</t>
   </si>
   <si>
-    <t>7.58元</t>
-  </si>
-  <si>
-    <t>2，超华科技</t>
-  </si>
-  <si>
-    <t>002288</t>
-  </si>
-  <si>
     <t>2015.4.29</t>
   </si>
   <si>
     <t>2017.9.4</t>
   </si>
   <si>
-    <t>6.62元</t>
-  </si>
-  <si>
-    <t>3，澄星股份</t>
-  </si>
-  <si>
     <t>2012.3.29</t>
   </si>
   <si>
     <t>2015.12.22</t>
   </si>
   <si>
-    <t>6.46元</t>
-  </si>
-  <si>
-    <t>4，三房巷</t>
-  </si>
-  <si>
     <t>2015.3.31</t>
   </si>
   <si>
     <t>2017.3.9</t>
   </si>
   <si>
-    <t>4.72元</t>
-  </si>
-  <si>
-    <t>5，山东墨龙</t>
-  </si>
-  <si>
-    <t>002490</t>
-  </si>
-  <si>
     <t>2015.4.25</t>
   </si>
   <si>
     <t>2017.3.21</t>
   </si>
   <si>
-    <t>6.84元</t>
-  </si>
-  <si>
-    <t>6，亿晶光电</t>
-  </si>
-  <si>
     <t>2017.2.3</t>
   </si>
   <si>
     <t>2017.4.14</t>
   </si>
   <si>
-    <t>5.23元</t>
-  </si>
-  <si>
-    <t>7，宝利国际</t>
-  </si>
-  <si>
     <t>2015.7.4</t>
   </si>
   <si>
     <t>2015.11.24</t>
   </si>
   <si>
-    <t>9.06元</t>
-  </si>
-  <si>
-    <t>8，方正证券</t>
-  </si>
-  <si>
     <t>2011.8.9</t>
   </si>
   <si>
     <t>2015.7.14</t>
   </si>
   <si>
-    <t>7.88元</t>
-  </si>
-  <si>
-    <t>9，方正科技</t>
-  </si>
-  <si>
     <t>2005.3.19</t>
   </si>
   <si>
     <t>2015.11.19</t>
   </si>
   <si>
-    <t>6.42元</t>
-  </si>
-  <si>
-    <t>10，嘉寓股份</t>
-  </si>
-  <si>
     <t>2010.8.20</t>
   </si>
   <si>
     <t>2015.6.12</t>
   </si>
   <si>
-    <t>11，祥源文化</t>
-  </si>
-  <si>
     <t>2017.1.12</t>
   </si>
   <si>
     <t>2017.2.27</t>
   </si>
   <si>
-    <t>15.5元</t>
-  </si>
-  <si>
-    <t>12、中国高科</t>
-  </si>
-  <si>
     <t>2013.4.27</t>
   </si>
   <si>
     <t>2015.7.23</t>
   </si>
   <si>
-    <t>22.43元</t>
-  </si>
-  <si>
-    <t>13，鞍重股份</t>
-  </si>
-  <si>
-    <t>002667</t>
-  </si>
-  <si>
     <t>2016.4.23</t>
   </si>
   <si>
     <t>2017.3.10</t>
   </si>
   <si>
-    <t>22.97元</t>
-  </si>
-  <si>
-    <t>14，恒顺众昇</t>
-  </si>
-  <si>
     <t>2014.8.26</t>
   </si>
   <si>
     <t>2015.8.3</t>
   </si>
   <si>
-    <t>59.42元</t>
-  </si>
-  <si>
-    <t>15，匹凸匹</t>
-  </si>
-  <si>
     <t>2015.5.11</t>
   </si>
   <si>
     <t>2017.2.23</t>
   </si>
   <si>
-    <t>8.45元</t>
-  </si>
-  <si>
-    <t>16，太化股份</t>
-  </si>
-  <si>
     <t>2015.4.28</t>
   </si>
   <si>
     <t>2016.1.28</t>
   </si>
   <si>
-    <t>5.79元</t>
-  </si>
-  <si>
-    <t>17，山西三维</t>
-  </si>
-  <si>
-    <t>000755</t>
-  </si>
-  <si>
     <t>2014.8.13</t>
   </si>
   <si>
     <t>2018.4.17</t>
   </si>
   <si>
-    <t>4.65元</t>
-  </si>
-  <si>
-    <t>18,中水渔业</t>
-  </si>
-  <si>
-    <t>000798</t>
-  </si>
-  <si>
     <t>2015.8.28</t>
   </si>
   <si>
     <t>2016.3.29</t>
   </si>
   <si>
-    <t>11.66元</t>
-  </si>
-  <si>
     <t>虚假陈述揭露日有结余库存符合索赔要求</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>佳电股份</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>超华科技</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>澄星股份</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>三房巷</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>山东墨龙</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>亿晶光电</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>宝利国际</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>方正证券</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>方正科技</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>嘉寓股份</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>祥源文化</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国高科</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>鞍重股份</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>恒顺众昇</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>匹凸匹</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>太化股份</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>山西三维</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>中水渔业</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -273,7 +222,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -328,6 +277,28 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -372,7 +343,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -391,34 +362,46 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -699,7 +682,7 @@
   <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -721,188 +704,188 @@
       <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="15" t="s">
-        <v>81</v>
+      <c r="D1" s="11" t="s">
+        <v>40</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="16">
+        <v>1000922</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="D2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="E2" s="5">
+        <v>7.58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="16">
+        <v>1002288</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E3" s="5">
+        <v>6.62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="17">
+        <v>1600078</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="D4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="E4" s="5">
+        <v>6.46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="17">
+        <v>1600370</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="D5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="E5" s="5">
+        <v>4.72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" s="16">
+        <v>1002490</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="D6" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="5">
-        <v>600078</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="5">
-        <v>600370</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>26</v>
+      <c r="E6" s="5">
+        <v>6.84</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" s="5">
-        <v>600537</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>30</v>
+      <c r="A7" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="17">
+        <v>1600537</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="5">
+        <v>5.23</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B8" s="5">
-        <v>300135</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>34</v>
+      <c r="A8" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" s="17">
+        <v>1300135</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="5">
+        <v>9.06</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="B9" s="5">
-        <v>601901</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>38</v>
+      <c r="A9" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" s="17">
+        <v>1601901</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="5">
+        <v>7.88</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="B10" s="5">
-        <v>600601</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>42</v>
+      <c r="A10" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" s="17">
+        <v>1600601</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="5">
+        <v>6.42</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="B11" s="5">
-        <v>300117</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>45</v>
+      <c r="A11" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" s="17">
+        <v>1300117</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>23</v>
       </c>
       <c r="E11" s="5">
         <v>10.01</v>
@@ -911,153 +894,153 @@
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="B12" s="5">
-        <v>600576</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>49</v>
+      <c r="A12" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" s="17">
+        <v>1600576</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="5">
+        <v>15.5</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="B13" s="10">
-        <v>600730</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="D13" s="13" t="s">
+      <c r="A13" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="E13" s="10" t="s">
-        <v>53</v>
+      <c r="B13" s="18">
+        <v>1600730</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="8">
+        <v>22.43</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>58</v>
+      <c r="A14" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" s="16">
+        <v>1002667</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="5">
+        <v>22.97</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="B15" s="5">
-        <v>300208</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>62</v>
+      <c r="A15" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B15" s="17">
+        <v>1300208</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" s="5">
+        <v>59.42</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="B16" s="5">
-        <v>600696</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>66</v>
+      <c r="A16" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="B16" s="17">
+        <v>1600696</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E16" s="5">
+        <v>8.4499999999999993</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="B17" s="5">
-        <v>600281</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>70</v>
+      <c r="A17" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B17" s="17">
+        <v>1600281</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E17" s="5">
+        <v>5.79</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>75</v>
+      <c r="A18" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B18" s="16">
+        <v>1000755</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E18" s="5">
+        <v>4.6500000000000004</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="B19" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="D19" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="E19" s="10" t="s">
-        <v>80</v>
+      <c r="A19" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="B19" s="19">
+        <v>1000798</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E19" s="8">
+        <v>11.66</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>

--- a/资料/维一网·优质索赔标的（1号）.xlsx
+++ b/资料/维一网·优质索赔标的（1号）.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\lau\WeChatProjects\miniprogram-1\资料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AF58AAD-19A8-4882-A22C-B23A0F39BE6D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{715F8574-CAFE-419B-BC59-579A40E67839}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18070" yWindow="4520" windowWidth="17910" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9300" yWindow="5470" windowWidth="17910" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,19 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
-  <si>
-    <t>证券名称</t>
-  </si>
-  <si>
-    <t>代码</t>
-  </si>
-  <si>
-    <t>虚假陈述实施日</t>
-  </si>
-  <si>
-    <t>基准价</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
   <si>
     <t>2014.4.22</t>
   </si>
@@ -142,80 +130,168 @@
     <t>2016.3.29</t>
   </si>
   <si>
-    <t>虚假陈述揭露日有结余库存符合索赔要求</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>佳电股份</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>超华科技</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>澄星股份</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>三房巷</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>山东墨龙</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>亿晶光电</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>宝利国际</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>方正证券</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>方正科技</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>嘉寓股份</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>祥源文化</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>中国高科</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>鞍重股份</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>恒顺众昇</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>匹凸匹</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>太化股份</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>山西三维</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>中水渔业</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>code</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>date1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>date2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>price</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"000922"</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"002288"</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"600078"</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"600370"</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"002490"</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"600537"</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"300135"</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"601901"</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"600601"</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"300117"</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"600576"</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"600730"</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"002667"</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"300208"</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"600696"</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"600281"</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"000755"</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"000798"</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -226,13 +302,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -299,6 +368,14 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -343,65 +420,59 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -682,7 +753,7 @@
   <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -695,351 +766,351 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="D2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="E2" s="4">
+        <v>7.58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="4">
+        <v>6.62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="4">
+        <v>6.46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="4">
+        <v>4.72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="B2" s="16">
-        <v>1000922</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="5">
-        <v>7.58</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" s="16">
-        <v>1002288</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="5">
-        <v>6.62</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" s="17">
-        <v>1600078</v>
-      </c>
-      <c r="C4" s="6" t="s">
+      <c r="B6" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="5">
-        <v>6.46</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="B5" s="17">
-        <v>1600370</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="5">
-        <v>4.72</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="B6" s="16">
-        <v>1002490</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="5">
+      <c r="E6" s="4">
         <v>6.84</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="B7" s="17">
-        <v>1600537</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="5">
+      <c r="A7" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="4">
         <v>5.23</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="B8" s="17">
-        <v>1300135</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="5">
+      <c r="A8" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="4">
         <v>9.06</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="B9" s="17">
-        <v>1601901</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="5">
+      <c r="A9" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="4">
         <v>7.88</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="B10" s="17">
-        <v>1600601</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" s="5">
+      <c r="A10" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="4">
         <v>6.42</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="B11" s="17">
-        <v>1300117</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" s="5">
+      <c r="A11" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="4">
         <v>10.01</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="B12" s="17">
-        <v>1600576</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12" s="5">
+      <c r="A12" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="4">
         <v>15.5</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="B13" s="18">
-        <v>1600730</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13" s="8">
+      <c r="A13" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="7">
         <v>22.43</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="B14" s="16">
-        <v>1002667</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="E14" s="5">
+      <c r="A14" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="4">
         <v>22.97</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="B15" s="17">
-        <v>1300208</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E15" s="5">
+      <c r="A15" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" s="4">
         <v>59.42</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="B16" s="17">
-        <v>1600696</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="E16" s="5">
+      <c r="A16" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" s="4">
         <v>8.4499999999999993</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="B17" s="17">
-        <v>1600281</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="E17" s="5">
+      <c r="A17" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17" s="4">
         <v>5.79</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="B18" s="16">
-        <v>1000755</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E18" s="5">
+      <c r="A18" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E18" s="4">
         <v>4.6500000000000004</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="B19" s="19">
-        <v>1000798</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="E19" s="8">
+      <c r="A19" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E19" s="7">
         <v>11.66</v>
       </c>
       <c r="F19" s="1"/>
@@ -1091,7 +1162,7 @@
       <c r="G29" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75138888888888899" right="0.75138888888888899" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
